--- a/xlsx/袋棍球_intext.xlsx
+++ b/xlsx/袋棍球_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="512">
   <si>
     <t>袋棍球</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%83%E9%A1%9E%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>球類運動</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_袋棍球</t>
+    <t>球类运动</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_袋棍球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E</t>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BB%BF%E5%9C%B0%E5%8F%AF</t>
   </si>
   <si>
-    <t>滿地可</t>
+    <t>满地可</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E8%A2%8B%E6%A3%8D%E7%90%83%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國家袋棍球聯盟</t>
+    <t>国家袋棍球联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81</t>
@@ -77,19 +77,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84</t>
   </si>
   <si>
-    <t>紐約</t>
+    <t>纽约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>北卡羅萊納州</t>
+    <t>北卡罗莱纳州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>賓夕法尼亞州</t>
+    <t>宾夕法尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
@@ -101,25 +101,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
+    <t>奥克拉荷马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>德克薩斯州</t>
+    <t>德克萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E4%BB%96%E5%B7%9E</t>
   </si>
   <si>
-    <t>猶他州</t>
+    <t>犹他州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E</t>
   </si>
   <si>
-    <t>華盛頓州</t>
+    <t>华盛顿州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%81%E5%8C%97%E5%85%8B%E7%9C%81</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%96%AF%E5%96%80%E5%BE%B9%E6%BA%AB%E7%9C%81</t>
   </si>
   <si>
-    <t>薩斯喀徹溫省</t>
+    <t>萨斯喀彻温省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E4%BC%AF%E5%A1%94%E7%9C%81</t>
@@ -167,49 +167,49 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%91%E8%A9%A9%E7%9C%81</t>
   </si>
   <si>
-    <t>卑詩省</t>
+    <t>卑诗省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1904%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>1904年夏季奧林匹克運動會</t>
+    <t>1904年夏季奥林匹克运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1908%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>1908年夏季奧林匹克運動會</t>
+    <t>1908年夏季奥林匹克运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E8%81%B7%E6%A5%AD%E8%A2%8B%E6%A3%8D%E7%90%83%E5%A4%A7%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>北美職業袋棍球大聯盟</t>
+    <t>北美职业袋棍球大联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A4%E5%85%A7%E8%A2%8B%E6%A3%8D%E7%90%83</t>
   </si>
   <si>
-    <t>室內袋棍球</t>
+    <t>室内袋棍球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%A2%8B%E6%A3%8D%E7%90%83%E7%B8%BD%E6%9C%83</t>
   </si>
   <si>
-    <t>國際袋棍球總會</t>
+    <t>国际袋棍球总会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%A2%8B%E6%A3%8D%E7%90%83%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
   </si>
   <si>
-    <t>世界袋棍球錦標賽</t>
+    <t>世界袋棍球锦标赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%A2%8B%E6%A3%8D%E7%90%83%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
   </si>
   <si>
-    <t>歐洲袋棍球錦標賽</t>
+    <t>欧洲袋棍球锦标赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%AD%A3%E5%A5%A5%E8%BF%90%E4%BC%9A</t>
@@ -221,19 +221,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%93%E6%B4%9B%E9%AD%81%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>易洛魁聯盟</t>
+    <t>易洛魁联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%BF%E8%BB%8D</t>
   </si>
   <si>
-    <t>殿軍</t>
+    <t>殿军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E8%BB%8D</t>
   </si>
   <si>
-    <t>亞軍</t>
+    <t>亚军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E5%AD%90%E8%A2%8B%E6%A3%8D%E7%90%83%E4%B8%96%E7%95%8C%E6%9D%AF</t>
@@ -245,43 +245,43 @@
     <t>https://zh.wikipedia.org/wiki/U19%E4%B8%96%E7%95%8C%E8%A2%8B%E6%A3%8D%E7%90%83%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
   </si>
   <si>
-    <t>U19世界袋棍球錦標賽</t>
+    <t>U19世界袋棍球锦标赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%AD%A3%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83%E8%A2%8B%E6%A3%8D%E7%90%83%E6%AF%94%E8%B3%BD</t>
   </si>
   <si>
-    <t>夏季奧林匹克運動會袋棍球比賽</t>
+    <t>夏季奥林匹克运动会袋棍球比赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%89%BF%E7%9B%83_(%E8%A2%8B%E6%A3%8D%E7%90%83)</t>
   </si>
   <si>
-    <t>傳承盃 (袋棍球)</t>
+    <t>传承杯 (袋棍球)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E4%B8%96%E7%95%8C%E8%A2%8B%E6%A3%8D%E7%90%83%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
   </si>
   <si>
-    <t>2010年世界袋棍球錦標賽</t>
+    <t>2010年世界袋棍球锦标赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2014%E5%B9%B4%E4%B8%96%E7%95%8C%E8%A2%8B%E6%A3%8D%E7%90%83%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
   </si>
   <si>
-    <t>2014年世界袋棍球錦標賽</t>
+    <t>2014年世界袋棍球锦标赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%98%E9%9A%8A%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>團隊運動</t>
+    <t>团队运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E8%82%B2</t>
   </si>
   <si>
-    <t>體育</t>
+    <t>体育</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sports_governing_body</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%81%98%E7%B1%83%E7%90%83</t>
   </si>
   <si>
-    <t>沙灘籃球</t>
+    <t>沙滩篮球</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Deaf_basketball</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BC%AA%E6%A4%85%E7%B1%83%E7%90%83</t>
   </si>
   <si>
-    <t>輪椅籃球</t>
+    <t>轮椅篮球</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cestoball</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%83%E7%B6%B2%E7%90%83</t>
   </si>
   <si>
-    <t>籃網球</t>
+    <t>篮网球</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Fast5</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%B3%E7%90%83%E9%A1%9E%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>足球類運動</t>
+    <t>足球类运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A4%E5%86%85%E4%BA%94%E4%BA%BA%E5%88%B6%E8%B6%B3%E7%90%83</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%83%E9%9B%BB%E8%B6%B3%E7%90%83</t>
   </si>
   <si>
-    <t>閃電足球</t>
+    <t>闪电足球</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/metro_footy</t>
@@ -449,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E7%88%BE%E5%BC%8F%E8%B6%B3%E7%90%83</t>
   </si>
   <si>
-    <t>蓋爾式足球</t>
+    <t>盖尔式足球</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ladies%27_Gaelic_football</t>
@@ -467,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%A4%E7%9B%A4%E8%B6%B3%E7%90%83</t>
   </si>
   <si>
-    <t>烤盤足球</t>
+    <t>烤盘足球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%BC%8F%E8%B6%B3%E7%90%83</t>
@@ -485,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%AA%E6%97%97%E5%BC%8F%E7%BE%8E%E5%BC%8F%E8%B6%B3%E7%90%83</t>
   </si>
   <si>
-    <t>奪旗式美式足球</t>
+    <t>夺旗式美式足球</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Nine-man_football</t>
@@ -527,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A4%E5%85%A7%E7%BE%8E%E5%BC%8F%E8%B6%B3%E7%90%83</t>
   </si>
   <si>
-    <t>室內美式足球</t>
+    <t>室内美式足球</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Hybrid_sport</t>
@@ -683,13 +683,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%84%E6%AC%96%E7%90%83%E9%A1%9E%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>橄欖球類運動</t>
+    <t>橄榄球类运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E7%9B%9F%E5%BC%8F%E6%A9%84%E6%AC%96%E7%90%83</t>
   </si>
   <si>
-    <t>聯盟式橄欖球</t>
+    <t>联盟式橄榄球</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Masters_Rugby_League</t>
@@ -719,7 +719,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B6%E5%BC%8F%E6%AC%96%E7%90%83</t>
   </si>
   <si>
-    <t>帶式欖球</t>
+    <t>带式榄球</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Touch_football_(rugby_league)</t>
@@ -749,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%83%E4%BA%BA%E5%88%B6%E6%A9%84%E6%AC%96%E7%90%83</t>
   </si>
   <si>
-    <t>七人制橄欖球</t>
+    <t>七人制橄榄球</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Snow_rugby</t>
@@ -779,7 +779,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B2%E4%BA%BA%E9%96%80%E7%90%83</t>
   </si>
   <si>
-    <t>盲人門球</t>
+    <t>盲人门球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E7%90%83</t>
@@ -851,7 +851,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BF%E7%90%83%E5%B0%8D%E6%8A%97%E8%B3%BD</t>
   </si>
   <si>
-    <t>板球對抗賽</t>
+    <t>板球对抗赛</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Twenty20_International</t>
@@ -905,13 +905,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B9%9E%E5%9C%88%E7%90%83</t>
   </si>
   <si>
-    <t>繞圈球</t>
+    <t>绕圈球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%98%E7%90%83</t>
   </si>
   <si>
-    <t>壘球</t>
+    <t>垒球</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Fastpitch_softball</t>
@@ -1121,7 +1121,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%90%83</t>
   </si>
   <si>
-    <t>馬球</t>
+    <t>马球</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Auto_polo</t>
@@ -1133,7 +1133,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BC%95%E8%89%87%E6%B0%B4%E7%90%83</t>
   </si>
   <si>
-    <t>輕艇水球</t>
+    <t>轻艇水球</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cowboy_polo</t>
@@ -1169,9 +1169,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E7%90%83</t>
   </si>
   <si>
-    <t>马球</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/chovgan</t>
   </si>
   <si>
@@ -1271,7 +1268,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%AD%98%E9%81%8A%E6%88%B2</t>
   </si>
   <si>
-    <t>生存遊戲</t>
+    <t>生存游戏</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Angleball</t>
@@ -1283,7 +1280,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A3%81%E7%B6%B2%E7%90%83</t>
   </si>
   <si>
-    <t>壁網球</t>
+    <t>壁网球</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/frontenis</t>
@@ -1313,13 +1310,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%A3%BA</t>
   </si>
   <si>
-    <t>冰壺</t>
+    <t>冰壶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E8%BB%8A%E7%90%83</t>
   </si>
   <si>
-    <t>單車球</t>
+    <t>单车球</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Digor_(sports)</t>
@@ -1361,7 +1358,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E4%B8%8A%E6%BB%91%E7%9B%A4</t>
   </si>
   <si>
-    <t>冰上滑盤</t>
+    <t>冰上滑盘</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Jereed</t>
@@ -1409,7 +1406,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%B7%E5%BD%A9%E6%BC%86%E5%BD%88%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>迷彩漆彈運動</t>
+    <t>迷彩漆弹运动</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Pelota_mixteca</t>
@@ -1421,25 +1418,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BB%BE%E7%90%83</t>
   </si>
   <si>
-    <t>滾球</t>
+    <t>滚球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BC%8F%E6%BB%BE%E7%90%83</t>
   </si>
   <si>
-    <t>法式滾球</t>
+    <t>法式滚球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%AC%E5%9C%B0%E6%BB%BE%E7%90%83</t>
   </si>
   <si>
-    <t>硬地滾球</t>
+    <t>硬地滚球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%89%E5%9C%B0%E6%BB%BE%E7%90%83</t>
   </si>
   <si>
-    <t>草地滾球</t>
+    <t>草地滚球</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Jeu_Proven%C3%A7al</t>
@@ -1499,7 +1496,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%82%E6%A5%B5%E9%A3%9B%E7%9B%A4</t>
   </si>
   <si>
-    <t>終極飛盤</t>
+    <t>终极飞盘</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Underwater_football</t>
@@ -1547,13 +1544,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -7637,7 +7634,7 @@
         <v>383</v>
       </c>
       <c r="F198" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="G198" t="n">
         <v>3</v>
@@ -7663,10 +7660,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>384</v>
+      </c>
+      <c r="F199" t="s">
         <v>385</v>
-      </c>
-      <c r="F199" t="s">
-        <v>386</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -7692,10 +7689,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>386</v>
+      </c>
+      <c r="F200" t="s">
         <v>387</v>
-      </c>
-      <c r="F200" t="s">
-        <v>388</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
@@ -7721,10 +7718,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>388</v>
+      </c>
+      <c r="F201" t="s">
         <v>389</v>
-      </c>
-      <c r="F201" t="s">
-        <v>390</v>
       </c>
       <c r="G201" t="n">
         <v>2</v>
@@ -7750,10 +7747,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>390</v>
+      </c>
+      <c r="F202" t="s">
         <v>391</v>
-      </c>
-      <c r="F202" t="s">
-        <v>392</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
@@ -7779,10 +7776,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>392</v>
+      </c>
+      <c r="F203" t="s">
         <v>393</v>
-      </c>
-      <c r="F203" t="s">
-        <v>394</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -7808,10 +7805,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>394</v>
+      </c>
+      <c r="F204" t="s">
         <v>395</v>
-      </c>
-      <c r="F204" t="s">
-        <v>396</v>
       </c>
       <c r="G204" t="n">
         <v>2</v>
@@ -7837,10 +7834,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>396</v>
+      </c>
+      <c r="F205" t="s">
         <v>397</v>
-      </c>
-      <c r="F205" t="s">
-        <v>398</v>
       </c>
       <c r="G205" t="n">
         <v>2</v>
@@ -7866,10 +7863,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>398</v>
+      </c>
+      <c r="F206" t="s">
         <v>399</v>
-      </c>
-      <c r="F206" t="s">
-        <v>400</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
@@ -7895,10 +7892,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>400</v>
+      </c>
+      <c r="F207" t="s">
         <v>401</v>
-      </c>
-      <c r="F207" t="s">
-        <v>402</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7924,10 +7921,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>402</v>
+      </c>
+      <c r="F208" t="s">
         <v>403</v>
-      </c>
-      <c r="F208" t="s">
-        <v>404</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7953,10 +7950,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>404</v>
+      </c>
+      <c r="F209" t="s">
         <v>405</v>
-      </c>
-      <c r="F209" t="s">
-        <v>406</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7982,10 +7979,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>406</v>
+      </c>
+      <c r="F210" t="s">
         <v>407</v>
-      </c>
-      <c r="F210" t="s">
-        <v>408</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -8011,10 +8008,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>408</v>
+      </c>
+      <c r="F211" t="s">
         <v>409</v>
-      </c>
-      <c r="F211" t="s">
-        <v>410</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -8040,10 +8037,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>410</v>
+      </c>
+      <c r="F212" t="s">
         <v>411</v>
-      </c>
-      <c r="F212" t="s">
-        <v>412</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8069,10 +8066,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>412</v>
+      </c>
+      <c r="F213" t="s">
         <v>413</v>
-      </c>
-      <c r="F213" t="s">
-        <v>414</v>
       </c>
       <c r="G213" t="n">
         <v>2</v>
@@ -8098,10 +8095,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>414</v>
+      </c>
+      <c r="F214" t="s">
         <v>415</v>
-      </c>
-      <c r="F214" t="s">
-        <v>416</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8127,10 +8124,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>416</v>
+      </c>
+      <c r="F215" t="s">
         <v>417</v>
-      </c>
-      <c r="F215" t="s">
-        <v>418</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8156,10 +8153,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>418</v>
+      </c>
+      <c r="F216" t="s">
         <v>419</v>
-      </c>
-      <c r="F216" t="s">
-        <v>420</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -8185,10 +8182,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>420</v>
+      </c>
+      <c r="F217" t="s">
         <v>421</v>
-      </c>
-      <c r="F217" t="s">
-        <v>422</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8214,10 +8211,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>422</v>
+      </c>
+      <c r="F218" t="s">
         <v>423</v>
-      </c>
-      <c r="F218" t="s">
-        <v>424</v>
       </c>
       <c r="G218" t="n">
         <v>2</v>
@@ -8243,10 +8240,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>424</v>
+      </c>
+      <c r="F219" t="s">
         <v>425</v>
-      </c>
-      <c r="F219" t="s">
-        <v>426</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8272,10 +8269,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>426</v>
+      </c>
+      <c r="F220" t="s">
         <v>427</v>
-      </c>
-      <c r="F220" t="s">
-        <v>428</v>
       </c>
       <c r="G220" t="n">
         <v>2</v>
@@ -8301,10 +8298,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>428</v>
+      </c>
+      <c r="F221" t="s">
         <v>429</v>
-      </c>
-      <c r="F221" t="s">
-        <v>430</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8330,10 +8327,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>430</v>
+      </c>
+      <c r="F222" t="s">
         <v>431</v>
-      </c>
-      <c r="F222" t="s">
-        <v>432</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8359,10 +8356,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>432</v>
+      </c>
+      <c r="F223" t="s">
         <v>433</v>
-      </c>
-      <c r="F223" t="s">
-        <v>434</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8388,10 +8385,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>434</v>
+      </c>
+      <c r="F224" t="s">
         <v>435</v>
-      </c>
-      <c r="F224" t="s">
-        <v>436</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8417,10 +8414,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>436</v>
+      </c>
+      <c r="F225" t="s">
         <v>437</v>
-      </c>
-      <c r="F225" t="s">
-        <v>438</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8446,10 +8443,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>438</v>
+      </c>
+      <c r="F226" t="s">
         <v>439</v>
-      </c>
-      <c r="F226" t="s">
-        <v>440</v>
       </c>
       <c r="G226" t="n">
         <v>2</v>
@@ -8475,10 +8472,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>440</v>
+      </c>
+      <c r="F227" t="s">
         <v>441</v>
-      </c>
-      <c r="F227" t="s">
-        <v>442</v>
       </c>
       <c r="G227" t="n">
         <v>2</v>
@@ -8504,10 +8501,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>442</v>
+      </c>
+      <c r="F228" t="s">
         <v>443</v>
-      </c>
-      <c r="F228" t="s">
-        <v>444</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8533,10 +8530,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>444</v>
+      </c>
+      <c r="F229" t="s">
         <v>445</v>
-      </c>
-      <c r="F229" t="s">
-        <v>446</v>
       </c>
       <c r="G229" t="n">
         <v>2</v>
@@ -8562,10 +8559,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>446</v>
+      </c>
+      <c r="F230" t="s">
         <v>447</v>
-      </c>
-      <c r="F230" t="s">
-        <v>448</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8591,10 +8588,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>448</v>
+      </c>
+      <c r="F231" t="s">
         <v>449</v>
-      </c>
-      <c r="F231" t="s">
-        <v>450</v>
       </c>
       <c r="G231" t="n">
         <v>2</v>
@@ -8620,10 +8617,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>450</v>
+      </c>
+      <c r="F232" t="s">
         <v>451</v>
-      </c>
-      <c r="F232" t="s">
-        <v>452</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8649,10 +8646,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>452</v>
+      </c>
+      <c r="F233" t="s">
         <v>453</v>
-      </c>
-      <c r="F233" t="s">
-        <v>454</v>
       </c>
       <c r="G233" t="n">
         <v>2</v>
@@ -8678,10 +8675,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>454</v>
+      </c>
+      <c r="F234" t="s">
         <v>455</v>
-      </c>
-      <c r="F234" t="s">
-        <v>456</v>
       </c>
       <c r="G234" t="n">
         <v>2</v>
@@ -8707,10 +8704,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>456</v>
+      </c>
+      <c r="F235" t="s">
         <v>457</v>
-      </c>
-      <c r="F235" t="s">
-        <v>458</v>
       </c>
       <c r="G235" t="n">
         <v>2</v>
@@ -8736,10 +8733,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>458</v>
+      </c>
+      <c r="F236" t="s">
         <v>459</v>
-      </c>
-      <c r="F236" t="s">
-        <v>460</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8765,10 +8762,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>460</v>
+      </c>
+      <c r="F237" t="s">
         <v>461</v>
-      </c>
-      <c r="F237" t="s">
-        <v>462</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8794,10 +8791,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>462</v>
+      </c>
+      <c r="F238" t="s">
         <v>463</v>
-      </c>
-      <c r="F238" t="s">
-        <v>464</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8823,10 +8820,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>464</v>
+      </c>
+      <c r="F239" t="s">
         <v>465</v>
-      </c>
-      <c r="F239" t="s">
-        <v>466</v>
       </c>
       <c r="G239" t="n">
         <v>2</v>
@@ -8852,10 +8849,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
+        <v>466</v>
+      </c>
+      <c r="F240" t="s">
         <v>467</v>
-      </c>
-      <c r="F240" t="s">
-        <v>468</v>
       </c>
       <c r="G240" t="n">
         <v>5</v>
@@ -8881,10 +8878,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>468</v>
+      </c>
+      <c r="F241" t="s">
         <v>469</v>
-      </c>
-      <c r="F241" t="s">
-        <v>470</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8910,10 +8907,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
+        <v>470</v>
+      </c>
+      <c r="F242" t="s">
         <v>471</v>
-      </c>
-      <c r="F242" t="s">
-        <v>472</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8939,10 +8936,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
+        <v>470</v>
+      </c>
+      <c r="F243" t="s">
         <v>471</v>
-      </c>
-      <c r="F243" t="s">
-        <v>472</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -8968,10 +8965,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>472</v>
+      </c>
+      <c r="F244" t="s">
         <v>473</v>
-      </c>
-      <c r="F244" t="s">
-        <v>474</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -8997,10 +8994,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>474</v>
+      </c>
+      <c r="F245" t="s">
         <v>475</v>
-      </c>
-      <c r="F245" t="s">
-        <v>476</v>
       </c>
       <c r="G245" t="n">
         <v>2</v>
@@ -9026,10 +9023,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
+        <v>476</v>
+      </c>
+      <c r="F246" t="s">
         <v>477</v>
-      </c>
-      <c r="F246" t="s">
-        <v>478</v>
       </c>
       <c r="G246" t="n">
         <v>2</v>
@@ -9055,10 +9052,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
+        <v>478</v>
+      </c>
+      <c r="F247" t="s">
         <v>479</v>
-      </c>
-      <c r="F247" t="s">
-        <v>480</v>
       </c>
       <c r="G247" t="n">
         <v>2</v>
@@ -9084,10 +9081,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
+        <v>480</v>
+      </c>
+      <c r="F248" t="s">
         <v>481</v>
-      </c>
-      <c r="F248" t="s">
-        <v>482</v>
       </c>
       <c r="G248" t="n">
         <v>2</v>
@@ -9113,10 +9110,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
+        <v>482</v>
+      </c>
+      <c r="F249" t="s">
         <v>483</v>
-      </c>
-      <c r="F249" t="s">
-        <v>484</v>
       </c>
       <c r="G249" t="n">
         <v>2</v>
@@ -9142,10 +9139,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
+        <v>484</v>
+      </c>
+      <c r="F250" t="s">
         <v>485</v>
-      </c>
-      <c r="F250" t="s">
-        <v>486</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9171,10 +9168,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
+        <v>486</v>
+      </c>
+      <c r="F251" t="s">
         <v>487</v>
-      </c>
-      <c r="F251" t="s">
-        <v>488</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9200,10 +9197,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
+        <v>488</v>
+      </c>
+      <c r="F252" t="s">
         <v>489</v>
-      </c>
-      <c r="F252" t="s">
-        <v>490</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9229,10 +9226,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
+        <v>490</v>
+      </c>
+      <c r="F253" t="s">
         <v>491</v>
-      </c>
-      <c r="F253" t="s">
-        <v>492</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9258,10 +9255,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
+        <v>492</v>
+      </c>
+      <c r="F254" t="s">
         <v>493</v>
-      </c>
-      <c r="F254" t="s">
-        <v>494</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9287,10 +9284,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
+        <v>494</v>
+      </c>
+      <c r="F255" t="s">
         <v>495</v>
-      </c>
-      <c r="F255" t="s">
-        <v>496</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9316,10 +9313,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
+        <v>496</v>
+      </c>
+      <c r="F256" t="s">
         <v>497</v>
-      </c>
-      <c r="F256" t="s">
-        <v>498</v>
       </c>
       <c r="G256" t="n">
         <v>2</v>
@@ -9345,10 +9342,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
+        <v>498</v>
+      </c>
+      <c r="F257" t="s">
         <v>499</v>
-      </c>
-      <c r="F257" t="s">
-        <v>500</v>
       </c>
       <c r="G257" t="n">
         <v>2</v>
@@ -9374,10 +9371,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
+        <v>500</v>
+      </c>
+      <c r="F258" t="s">
         <v>501</v>
-      </c>
-      <c r="F258" t="s">
-        <v>502</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9403,10 +9400,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
+        <v>502</v>
+      </c>
+      <c r="F259" t="s">
         <v>503</v>
-      </c>
-      <c r="F259" t="s">
-        <v>504</v>
       </c>
       <c r="G259" t="n">
         <v>2</v>
@@ -9432,10 +9429,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
+        <v>504</v>
+      </c>
+      <c r="F260" t="s">
         <v>505</v>
-      </c>
-      <c r="F260" t="s">
-        <v>506</v>
       </c>
       <c r="G260" t="n">
         <v>2</v>
@@ -9461,10 +9458,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
+        <v>506</v>
+      </c>
+      <c r="F261" t="s">
         <v>507</v>
-      </c>
-      <c r="F261" t="s">
-        <v>508</v>
       </c>
       <c r="G261" t="n">
         <v>2</v>
@@ -9490,10 +9487,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
+        <v>508</v>
+      </c>
+      <c r="F262" t="s">
         <v>509</v>
-      </c>
-      <c r="F262" t="s">
-        <v>510</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9519,10 +9516,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
+        <v>510</v>
+      </c>
+      <c r="F263" t="s">
         <v>511</v>
-      </c>
-      <c r="F263" t="s">
-        <v>512</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>

--- a/xlsx/袋棍球_intext.xlsx
+++ b/xlsx/袋棍球_intext.xlsx
@@ -29,7 +29,7 @@
     <t>球類運動</t>
   </si>
   <si>
-    <t>政策_政策_美國_袋棍球</t>
+    <t>体育运动_体育运动_袋棍球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E</t>
@@ -1962,7 +1962,7 @@
         <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1991,7 +1991,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2020,7 +2020,7 @@
         <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2049,7 +2049,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2078,7 +2078,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2107,7 +2107,7 @@
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2136,7 +2136,7 @@
         <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2165,7 +2165,7 @@
         <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2194,7 +2194,7 @@
         <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2223,7 +2223,7 @@
         <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2252,7 +2252,7 @@
         <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2281,7 +2281,7 @@
         <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2310,7 +2310,7 @@
         <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2339,7 +2339,7 @@
         <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2368,7 +2368,7 @@
         <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2397,7 +2397,7 @@
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2426,7 +2426,7 @@
         <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2455,7 +2455,7 @@
         <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2484,7 +2484,7 @@
         <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2513,7 +2513,7 @@
         <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2542,7 +2542,7 @@
         <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2571,7 +2571,7 @@
         <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2600,7 +2600,7 @@
         <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2629,7 +2629,7 @@
         <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2658,7 +2658,7 @@
         <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2687,7 +2687,7 @@
         <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2716,7 +2716,7 @@
         <v>4</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2745,7 +2745,7 @@
         <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2774,7 +2774,7 @@
         <v>4</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2803,7 +2803,7 @@
         <v>4</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2832,7 +2832,7 @@
         <v>4</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2861,7 +2861,7 @@
         <v>4</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2890,7 +2890,7 @@
         <v>4</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2919,7 +2919,7 @@
         <v>4</v>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2948,7 +2948,7 @@
         <v>4</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2977,7 +2977,7 @@
         <v>4</v>
       </c>
       <c r="I37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -3006,7 +3006,7 @@
         <v>4</v>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -3035,7 +3035,7 @@
         <v>4</v>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -3064,7 +3064,7 @@
         <v>4</v>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -3093,7 +3093,7 @@
         <v>4</v>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -3122,7 +3122,7 @@
         <v>4</v>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -3151,7 +3151,7 @@
         <v>4</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -3180,7 +3180,7 @@
         <v>4</v>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -3209,7 +3209,7 @@
         <v>4</v>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -3238,7 +3238,7 @@
         <v>4</v>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -3267,7 +3267,7 @@
         <v>4</v>
       </c>
       <c r="I47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -3296,7 +3296,7 @@
         <v>4</v>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -3325,7 +3325,7 @@
         <v>4</v>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3354,7 +3354,7 @@
         <v>4</v>
       </c>
       <c r="I50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -3383,7 +3383,7 @@
         <v>4</v>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3412,7 +3412,7 @@
         <v>4</v>
       </c>
       <c r="I52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -3441,7 +3441,7 @@
         <v>4</v>
       </c>
       <c r="I53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -3470,7 +3470,7 @@
         <v>4</v>
       </c>
       <c r="I54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -3499,7 +3499,7 @@
         <v>4</v>
       </c>
       <c r="I55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -3528,7 +3528,7 @@
         <v>4</v>
       </c>
       <c r="I56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3557,7 +3557,7 @@
         <v>4</v>
       </c>
       <c r="I57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3586,7 +3586,7 @@
         <v>4</v>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3615,7 +3615,7 @@
         <v>4</v>
       </c>
       <c r="I59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3644,7 +3644,7 @@
         <v>4</v>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3673,7 +3673,7 @@
         <v>4</v>
       </c>
       <c r="I61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3702,7 +3702,7 @@
         <v>4</v>
       </c>
       <c r="I62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3731,7 +3731,7 @@
         <v>4</v>
       </c>
       <c r="I63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3760,7 +3760,7 @@
         <v>4</v>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3789,7 +3789,7 @@
         <v>4</v>
       </c>
       <c r="I65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3818,7 +3818,7 @@
         <v>4</v>
       </c>
       <c r="I66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3847,7 +3847,7 @@
         <v>4</v>
       </c>
       <c r="I67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3876,7 +3876,7 @@
         <v>4</v>
       </c>
       <c r="I68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3905,7 +3905,7 @@
         <v>4</v>
       </c>
       <c r="I69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3934,7 +3934,7 @@
         <v>4</v>
       </c>
       <c r="I70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3963,7 +3963,7 @@
         <v>4</v>
       </c>
       <c r="I71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3992,7 +3992,7 @@
         <v>4</v>
       </c>
       <c r="I72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -4021,7 +4021,7 @@
         <v>4</v>
       </c>
       <c r="I73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -4050,7 +4050,7 @@
         <v>4</v>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -4079,7 +4079,7 @@
         <v>4</v>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -4108,7 +4108,7 @@
         <v>4</v>
       </c>
       <c r="I76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -4137,7 +4137,7 @@
         <v>4</v>
       </c>
       <c r="I77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -4166,7 +4166,7 @@
         <v>4</v>
       </c>
       <c r="I78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -4195,7 +4195,7 @@
         <v>4</v>
       </c>
       <c r="I79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -4224,7 +4224,7 @@
         <v>4</v>
       </c>
       <c r="I80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -4253,7 +4253,7 @@
         <v>4</v>
       </c>
       <c r="I81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -4282,7 +4282,7 @@
         <v>4</v>
       </c>
       <c r="I82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -4311,7 +4311,7 @@
         <v>4</v>
       </c>
       <c r="I83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -4340,7 +4340,7 @@
         <v>4</v>
       </c>
       <c r="I84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -4369,7 +4369,7 @@
         <v>4</v>
       </c>
       <c r="I85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -4398,7 +4398,7 @@
         <v>4</v>
       </c>
       <c r="I86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -4427,7 +4427,7 @@
         <v>4</v>
       </c>
       <c r="I87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -4456,7 +4456,7 @@
         <v>4</v>
       </c>
       <c r="I88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -4485,7 +4485,7 @@
         <v>4</v>
       </c>
       <c r="I89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -4514,7 +4514,7 @@
         <v>4</v>
       </c>
       <c r="I90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -4543,7 +4543,7 @@
         <v>4</v>
       </c>
       <c r="I91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -4572,7 +4572,7 @@
         <v>4</v>
       </c>
       <c r="I92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -4601,7 +4601,7 @@
         <v>4</v>
       </c>
       <c r="I93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -4630,7 +4630,7 @@
         <v>4</v>
       </c>
       <c r="I94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -4659,7 +4659,7 @@
         <v>4</v>
       </c>
       <c r="I95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -4688,7 +4688,7 @@
         <v>4</v>
       </c>
       <c r="I96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -4717,7 +4717,7 @@
         <v>4</v>
       </c>
       <c r="I97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -4746,7 +4746,7 @@
         <v>4</v>
       </c>
       <c r="I98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -4775,7 +4775,7 @@
         <v>4</v>
       </c>
       <c r="I99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -4804,7 +4804,7 @@
         <v>4</v>
       </c>
       <c r="I100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4833,7 +4833,7 @@
         <v>4</v>
       </c>
       <c r="I101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -4862,7 +4862,7 @@
         <v>4</v>
       </c>
       <c r="I102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4891,7 +4891,7 @@
         <v>4</v>
       </c>
       <c r="I103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4920,7 +4920,7 @@
         <v>4</v>
       </c>
       <c r="I104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4949,7 +4949,7 @@
         <v>4</v>
       </c>
       <c r="I105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4978,7 +4978,7 @@
         <v>4</v>
       </c>
       <c r="I106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -5007,7 +5007,7 @@
         <v>4</v>
       </c>
       <c r="I107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -5036,7 +5036,7 @@
         <v>4</v>
       </c>
       <c r="I108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -5065,7 +5065,7 @@
         <v>4</v>
       </c>
       <c r="I109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -5094,7 +5094,7 @@
         <v>4</v>
       </c>
       <c r="I110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -5123,7 +5123,7 @@
         <v>4</v>
       </c>
       <c r="I111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -5152,7 +5152,7 @@
         <v>4</v>
       </c>
       <c r="I112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -5181,7 +5181,7 @@
         <v>4</v>
       </c>
       <c r="I113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -5210,7 +5210,7 @@
         <v>4</v>
       </c>
       <c r="I114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -5239,7 +5239,7 @@
         <v>4</v>
       </c>
       <c r="I115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -5268,7 +5268,7 @@
         <v>4</v>
       </c>
       <c r="I116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -5297,7 +5297,7 @@
         <v>4</v>
       </c>
       <c r="I117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -5326,7 +5326,7 @@
         <v>4</v>
       </c>
       <c r="I118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -5355,7 +5355,7 @@
         <v>4</v>
       </c>
       <c r="I119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -5384,7 +5384,7 @@
         <v>4</v>
       </c>
       <c r="I120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -5413,7 +5413,7 @@
         <v>4</v>
       </c>
       <c r="I121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -5442,7 +5442,7 @@
         <v>4</v>
       </c>
       <c r="I122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -5471,7 +5471,7 @@
         <v>4</v>
       </c>
       <c r="I123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -5500,7 +5500,7 @@
         <v>4</v>
       </c>
       <c r="I124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -5529,7 +5529,7 @@
         <v>4</v>
       </c>
       <c r="I125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -5558,7 +5558,7 @@
         <v>4</v>
       </c>
       <c r="I126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -5587,7 +5587,7 @@
         <v>4</v>
       </c>
       <c r="I127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -5616,7 +5616,7 @@
         <v>4</v>
       </c>
       <c r="I128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -5645,7 +5645,7 @@
         <v>4</v>
       </c>
       <c r="I129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -5674,7 +5674,7 @@
         <v>4</v>
       </c>
       <c r="I130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -5703,7 +5703,7 @@
         <v>4</v>
       </c>
       <c r="I131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -5732,7 +5732,7 @@
         <v>4</v>
       </c>
       <c r="I132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -5761,7 +5761,7 @@
         <v>4</v>
       </c>
       <c r="I133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -5790,7 +5790,7 @@
         <v>4</v>
       </c>
       <c r="I134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -5819,7 +5819,7 @@
         <v>4</v>
       </c>
       <c r="I135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -5848,7 +5848,7 @@
         <v>4</v>
       </c>
       <c r="I136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -5877,7 +5877,7 @@
         <v>4</v>
       </c>
       <c r="I137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -5906,7 +5906,7 @@
         <v>4</v>
       </c>
       <c r="I138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -5935,7 +5935,7 @@
         <v>4</v>
       </c>
       <c r="I139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -5964,7 +5964,7 @@
         <v>4</v>
       </c>
       <c r="I140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -5993,7 +5993,7 @@
         <v>4</v>
       </c>
       <c r="I141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -6022,7 +6022,7 @@
         <v>4</v>
       </c>
       <c r="I142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -6051,7 +6051,7 @@
         <v>4</v>
       </c>
       <c r="I143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -6080,7 +6080,7 @@
         <v>4</v>
       </c>
       <c r="I144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -6109,7 +6109,7 @@
         <v>4</v>
       </c>
       <c r="I145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -6138,7 +6138,7 @@
         <v>4</v>
       </c>
       <c r="I146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -6167,7 +6167,7 @@
         <v>4</v>
       </c>
       <c r="I147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -6196,7 +6196,7 @@
         <v>4</v>
       </c>
       <c r="I148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -6225,7 +6225,7 @@
         <v>4</v>
       </c>
       <c r="I149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -6254,7 +6254,7 @@
         <v>4</v>
       </c>
       <c r="I150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -6283,7 +6283,7 @@
         <v>4</v>
       </c>
       <c r="I151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -6312,7 +6312,7 @@
         <v>4</v>
       </c>
       <c r="I152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -6341,7 +6341,7 @@
         <v>4</v>
       </c>
       <c r="I153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -6370,7 +6370,7 @@
         <v>4</v>
       </c>
       <c r="I154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -6399,7 +6399,7 @@
         <v>4</v>
       </c>
       <c r="I155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -6428,7 +6428,7 @@
         <v>4</v>
       </c>
       <c r="I156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -6457,7 +6457,7 @@
         <v>4</v>
       </c>
       <c r="I157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -6486,7 +6486,7 @@
         <v>4</v>
       </c>
       <c r="I158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -6515,7 +6515,7 @@
         <v>4</v>
       </c>
       <c r="I159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -6544,7 +6544,7 @@
         <v>4</v>
       </c>
       <c r="I160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -6573,7 +6573,7 @@
         <v>4</v>
       </c>
       <c r="I161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -6602,7 +6602,7 @@
         <v>4</v>
       </c>
       <c r="I162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -6631,7 +6631,7 @@
         <v>4</v>
       </c>
       <c r="I163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -6660,7 +6660,7 @@
         <v>4</v>
       </c>
       <c r="I164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -6689,7 +6689,7 @@
         <v>4</v>
       </c>
       <c r="I165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -6718,7 +6718,7 @@
         <v>4</v>
       </c>
       <c r="I166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -6747,7 +6747,7 @@
         <v>4</v>
       </c>
       <c r="I167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -6776,7 +6776,7 @@
         <v>4</v>
       </c>
       <c r="I168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -6805,7 +6805,7 @@
         <v>4</v>
       </c>
       <c r="I169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -6834,7 +6834,7 @@
         <v>4</v>
       </c>
       <c r="I170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -6863,7 +6863,7 @@
         <v>4</v>
       </c>
       <c r="I171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -6892,7 +6892,7 @@
         <v>4</v>
       </c>
       <c r="I172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -6921,7 +6921,7 @@
         <v>4</v>
       </c>
       <c r="I173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -6950,7 +6950,7 @@
         <v>4</v>
       </c>
       <c r="I174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -6979,7 +6979,7 @@
         <v>4</v>
       </c>
       <c r="I175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -7008,7 +7008,7 @@
         <v>4</v>
       </c>
       <c r="I176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -7037,7 +7037,7 @@
         <v>4</v>
       </c>
       <c r="I177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -7066,7 +7066,7 @@
         <v>4</v>
       </c>
       <c r="I178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -7095,7 +7095,7 @@
         <v>4</v>
       </c>
       <c r="I179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -7124,7 +7124,7 @@
         <v>4</v>
       </c>
       <c r="I180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -7153,7 +7153,7 @@
         <v>4</v>
       </c>
       <c r="I181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -7182,7 +7182,7 @@
         <v>4</v>
       </c>
       <c r="I182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -7211,7 +7211,7 @@
         <v>4</v>
       </c>
       <c r="I183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -7240,7 +7240,7 @@
         <v>4</v>
       </c>
       <c r="I184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -7269,7 +7269,7 @@
         <v>4</v>
       </c>
       <c r="I185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -7298,7 +7298,7 @@
         <v>4</v>
       </c>
       <c r="I186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -7327,7 +7327,7 @@
         <v>4</v>
       </c>
       <c r="I187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -7356,7 +7356,7 @@
         <v>4</v>
       </c>
       <c r="I188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -7385,7 +7385,7 @@
         <v>4</v>
       </c>
       <c r="I189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -7414,7 +7414,7 @@
         <v>4</v>
       </c>
       <c r="I190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -7443,7 +7443,7 @@
         <v>4</v>
       </c>
       <c r="I191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -7472,7 +7472,7 @@
         <v>4</v>
       </c>
       <c r="I192" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -7501,7 +7501,7 @@
         <v>4</v>
       </c>
       <c r="I193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -7530,7 +7530,7 @@
         <v>4</v>
       </c>
       <c r="I194" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -7559,7 +7559,7 @@
         <v>4</v>
       </c>
       <c r="I195" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -7588,7 +7588,7 @@
         <v>4</v>
       </c>
       <c r="I196" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -7617,7 +7617,7 @@
         <v>4</v>
       </c>
       <c r="I197" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -7646,7 +7646,7 @@
         <v>4</v>
       </c>
       <c r="I198" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -7675,7 +7675,7 @@
         <v>4</v>
       </c>
       <c r="I199" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -7704,7 +7704,7 @@
         <v>4</v>
       </c>
       <c r="I200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -7733,7 +7733,7 @@
         <v>4</v>
       </c>
       <c r="I201" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -7762,7 +7762,7 @@
         <v>4</v>
       </c>
       <c r="I202" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -7791,7 +7791,7 @@
         <v>4</v>
       </c>
       <c r="I203" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -7820,7 +7820,7 @@
         <v>4</v>
       </c>
       <c r="I204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -7849,7 +7849,7 @@
         <v>4</v>
       </c>
       <c r="I205" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -7878,7 +7878,7 @@
         <v>4</v>
       </c>
       <c r="I206" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -7907,7 +7907,7 @@
         <v>4</v>
       </c>
       <c r="I207" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -7936,7 +7936,7 @@
         <v>4</v>
       </c>
       <c r="I208" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -7965,7 +7965,7 @@
         <v>4</v>
       </c>
       <c r="I209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -7994,7 +7994,7 @@
         <v>4</v>
       </c>
       <c r="I210" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -8023,7 +8023,7 @@
         <v>4</v>
       </c>
       <c r="I211" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -8052,7 +8052,7 @@
         <v>4</v>
       </c>
       <c r="I212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -8081,7 +8081,7 @@
         <v>4</v>
       </c>
       <c r="I213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -8110,7 +8110,7 @@
         <v>4</v>
       </c>
       <c r="I214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -8139,7 +8139,7 @@
         <v>4</v>
       </c>
       <c r="I215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -8168,7 +8168,7 @@
         <v>4</v>
       </c>
       <c r="I216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -8197,7 +8197,7 @@
         <v>4</v>
       </c>
       <c r="I217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -8226,7 +8226,7 @@
         <v>4</v>
       </c>
       <c r="I218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -8255,7 +8255,7 @@
         <v>4</v>
       </c>
       <c r="I219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -8284,7 +8284,7 @@
         <v>4</v>
       </c>
       <c r="I220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -8313,7 +8313,7 @@
         <v>4</v>
       </c>
       <c r="I221" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -8342,7 +8342,7 @@
         <v>4</v>
       </c>
       <c r="I222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -8371,7 +8371,7 @@
         <v>4</v>
       </c>
       <c r="I223" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -8400,7 +8400,7 @@
         <v>4</v>
       </c>
       <c r="I224" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -8429,7 +8429,7 @@
         <v>4</v>
       </c>
       <c r="I225" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -8458,7 +8458,7 @@
         <v>4</v>
       </c>
       <c r="I226" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -8487,7 +8487,7 @@
         <v>4</v>
       </c>
       <c r="I227" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -8516,7 +8516,7 @@
         <v>4</v>
       </c>
       <c r="I228" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -8545,7 +8545,7 @@
         <v>4</v>
       </c>
       <c r="I229" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -8574,7 +8574,7 @@
         <v>4</v>
       </c>
       <c r="I230" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -8603,7 +8603,7 @@
         <v>4</v>
       </c>
       <c r="I231" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -8632,7 +8632,7 @@
         <v>4</v>
       </c>
       <c r="I232" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -8661,7 +8661,7 @@
         <v>4</v>
       </c>
       <c r="I233" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -8690,7 +8690,7 @@
         <v>4</v>
       </c>
       <c r="I234" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -8719,7 +8719,7 @@
         <v>4</v>
       </c>
       <c r="I235" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -8748,7 +8748,7 @@
         <v>4</v>
       </c>
       <c r="I236" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -8777,7 +8777,7 @@
         <v>4</v>
       </c>
       <c r="I237" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -8806,7 +8806,7 @@
         <v>4</v>
       </c>
       <c r="I238" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -8835,7 +8835,7 @@
         <v>4</v>
       </c>
       <c r="I239" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -8864,7 +8864,7 @@
         <v>4</v>
       </c>
       <c r="I240" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -8893,7 +8893,7 @@
         <v>4</v>
       </c>
       <c r="I241" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -8922,7 +8922,7 @@
         <v>4</v>
       </c>
       <c r="I242" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -8951,7 +8951,7 @@
         <v>4</v>
       </c>
       <c r="I243" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -8980,7 +8980,7 @@
         <v>4</v>
       </c>
       <c r="I244" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -9009,7 +9009,7 @@
         <v>4</v>
       </c>
       <c r="I245" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -9038,7 +9038,7 @@
         <v>4</v>
       </c>
       <c r="I246" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -9067,7 +9067,7 @@
         <v>4</v>
       </c>
       <c r="I247" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -9096,7 +9096,7 @@
         <v>4</v>
       </c>
       <c r="I248" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -9125,7 +9125,7 @@
         <v>4</v>
       </c>
       <c r="I249" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -9154,7 +9154,7 @@
         <v>4</v>
       </c>
       <c r="I250" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -9183,7 +9183,7 @@
         <v>4</v>
       </c>
       <c r="I251" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -9212,7 +9212,7 @@
         <v>4</v>
       </c>
       <c r="I252" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -9241,7 +9241,7 @@
         <v>4</v>
       </c>
       <c r="I253" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -9270,7 +9270,7 @@
         <v>4</v>
       </c>
       <c r="I254" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -9299,7 +9299,7 @@
         <v>4</v>
       </c>
       <c r="I255" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -9328,7 +9328,7 @@
         <v>4</v>
       </c>
       <c r="I256" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -9357,7 +9357,7 @@
         <v>4</v>
       </c>
       <c r="I257" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -9386,7 +9386,7 @@
         <v>4</v>
       </c>
       <c r="I258" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -9415,7 +9415,7 @@
         <v>4</v>
       </c>
       <c r="I259" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -9444,7 +9444,7 @@
         <v>4</v>
       </c>
       <c r="I260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -9473,7 +9473,7 @@
         <v>4</v>
       </c>
       <c r="I261" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -9502,7 +9502,7 @@
         <v>4</v>
       </c>
       <c r="I262" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -9531,7 +9531,7 @@
         <v>4</v>
       </c>
       <c r="I263" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
